--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4062167.164219609</v>
+        <v>4059790.537272244</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>214.3411264127409</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>72.94942429078291</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>167.8420981406712</v>
       </c>
       <c r="W4" t="n">
-        <v>65.58300470475507</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>103.5164680384151</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>67.50735138751325</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>35.33415019398299</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.03845516391076</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>147.4967094207922</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>170.9735543575594</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9.813247732550369</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110066</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673009</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
-        <v>51.36569740310371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>842.8595545333294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2345.833140104457</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.064484834343</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>1619.598726573263</v>
+        <v>918.016117921866</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.459394597451</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908465</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>884.908532145821</v>
+        <v>846.3061319081671</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>939.770065904978</v>
+        <v>473.9512097489097</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>305.0150268210028</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>305.0150268210028</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>655.5996745791495</v>
       </c>
       <c r="W4" t="n">
-        <v>1570.200660776765</v>
+        <v>655.5996745791495</v>
       </c>
       <c r="X4" t="n">
-        <v>1342.211109878748</v>
+        <v>655.5996745791495</v>
       </c>
       <c r="Y4" t="n">
-        <v>1121.418530735218</v>
+        <v>655.5996745791495</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1182.87310169792</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C5" t="n">
-        <v>813.9105847575083</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D5" t="n">
-        <v>455.6448861507579</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4571,46 +4571,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2333.078031998934</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2333.078031998934</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>2333.078031998934</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W5" t="n">
-        <v>2333.078031998934</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X5" t="n">
-        <v>1959.612273737853</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="Y5" t="n">
-        <v>1569.472941762042</v>
+        <v>1202.59552936621</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>86.93784737000615</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4732,7 +4732,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1626.306266373578</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1626.306266373578</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1403.327785568313</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1403.327785568313</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V7" t="n">
-        <v>1148.643297362426</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>535.7199774115536</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>307.7304265135363</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>86.93784737000615</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.287154902436</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4808,46 +4808,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872918</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2413.352753227638</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2413.352753227638</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>2413.352753227638</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X8" t="n">
-        <v>2039.886994966557</v>
+        <v>1118.781316225816</v>
       </c>
       <c r="Y8" t="n">
-        <v>2039.886994966557</v>
+        <v>1118.781316225816</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>314.9273982680235</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>314.9273982680235</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>314.9273982680235</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>167.0143046856303</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>535.7199774115536</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>535.7199774115536</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>314.9273982680235</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5027,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>904.461687384549</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.840175011101</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>369.499740389278</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,28 +6242,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,19 +6473,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,16 +6716,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589403</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019034</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>168.7434581780637</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>280.1079373569273</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194322</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>611459.3894176279</v>
+        <v>611459.3894176278</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="I2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="J2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900065</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900058</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900061</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245453</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>6.694760941172718e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707452</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
@@ -26433,31 +26433,31 @@
         <v>6897.424496707383</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707352</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707321</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707319</v>
-      </c>
       <c r="L4" t="n">
-        <v>6897.424496707292</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707392</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-518557.5129831061</v>
+        <v>-518557.5129831062</v>
       </c>
       <c r="C6" t="n">
-        <v>596194.2705928134</v>
+        <v>596194.2705928138</v>
       </c>
       <c r="D6" t="n">
-        <v>596194.2705928134</v>
+        <v>596194.2705928141</v>
       </c>
       <c r="E6" t="n">
-        <v>191641.2037448462</v>
+        <v>191606.4658194105</v>
       </c>
       <c r="F6" t="n">
-        <v>699126.6453693912</v>
+        <v>699091.9074439559</v>
       </c>
       <c r="G6" t="n">
-        <v>699126.6453693917</v>
+        <v>699091.907443956</v>
       </c>
       <c r="H6" t="n">
-        <v>699126.6453693914</v>
+        <v>699091.9074439562</v>
       </c>
       <c r="I6" t="n">
-        <v>699126.6453693915</v>
+        <v>699091.9074439562</v>
       </c>
       <c r="J6" t="n">
-        <v>531521.4675594091</v>
+        <v>531486.7296339733</v>
       </c>
       <c r="K6" t="n">
-        <v>699126.6453693921</v>
+        <v>699091.9074439561</v>
       </c>
       <c r="L6" t="n">
-        <v>699126.6453693919</v>
+        <v>699091.9074439561</v>
       </c>
       <c r="M6" t="n">
-        <v>566519.3516404652</v>
+        <v>566484.6137150293</v>
       </c>
       <c r="N6" t="n">
-        <v>699126.6453693917</v>
+        <v>699091.9074439564</v>
       </c>
       <c r="O6" t="n">
-        <v>699126.6453693913</v>
+        <v>699091.9074439562</v>
       </c>
       <c r="P6" t="n">
-        <v>699126.6453693918</v>
+        <v>699091.9074439559</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,40 +26966,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224134</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>113.411132057394</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>313.2885143652707</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>84.29554518315683</v>
       </c>
       <c r="W4" t="n">
-        <v>220.9399936318359</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>103.1417169418187</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>318.7305872685403</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>131.9126709046448</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>91.51911725566286</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>103.5485407076698</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.7575463209096</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>135.6078002903809</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386500999</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>456.3459017226608</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543355</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681148</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35027,13 +35027,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>522.0158803980265</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>535.6747904601043</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>615.5326193530504</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>318.5044627483018</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
